--- a/エレメント/お救け隊.xlsx
+++ b/エレメント/お救け隊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Program\eclipse\Ruby\わーく・ワク\ホームページ\waku_waku_homepage\エレメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E44D2C6-971F-4FC9-BE03-49068E1F1958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171CDEAF-F01E-47F9-8ED3-F34171F5226E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="10965" activeTab="1" xr2:uid="{39575CD1-5646-4D83-B032-CEE34D0BC7E2}"/>
   </bookViews>
@@ -23,6 +23,109 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリガナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯番号</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客_id</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows_Ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,12 +487,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C5415E-50A1-412C-9E79-FA23450D8938}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -398,14 +533,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36320461-C310-4050-87AC-AB168D5D3E57}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
